--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3328.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3328.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9395915473998536</v>
+        <v>2.110880374908447</v>
       </c>
       <c r="B1">
-        <v>1.579555755627472</v>
+        <v>4.6388258934021</v>
       </c>
       <c r="C1">
-        <v>5.383967461001224</v>
+        <v>3.481638193130493</v>
       </c>
       <c r="D1">
-        <v>4.758226918186554</v>
+        <v>0.8985042572021484</v>
       </c>
       <c r="E1">
-        <v>1.565342291402222</v>
+        <v>0.4724022746086121</v>
       </c>
     </row>
   </sheetData>
